--- a/Iran-Mazandaran-Javaherdeh site.xlsx
+++ b/Iran-Mazandaran-Javaherdeh site.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRU\Iran_data\CSV\Iran_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28F1E77E-AE6E-4114-9967-B62BBFEBFAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EC4FE8-87B7-4C9B-ACC0-68946D741827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excolure area" sheetId="3" r:id="rId1"/>
@@ -38,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRT Pack 20 DVDs</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="646">
   <si>
     <t>UPS Location (GPS coordinates)</t>
   </si>
@@ -7353,12 +7353,31 @@
       <t xml:space="preserve"> DC.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Anagallis arvensis L.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>vensis L.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7473,6 +7492,17 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7691,7 +7721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -7890,8 +7920,11 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7900,31 +7933,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7938,23 +7950,41 @@
     <xf numFmtId="15" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7966,6 +7996,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8001,18 +8043,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8350,10 +8381,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
@@ -8372,312 +8403,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
     </row>
     <row r="2" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="61"/>
       <c r="G2" s="61"/>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="90"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="84"/>
     </row>
     <row r="3" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="62"/>
       <c r="F3" s="61"/>
       <c r="G3" s="61"/>
-      <c r="H3" s="91">
+      <c r="H3" s="85">
         <v>41076</v>
       </c>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="90"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="84"/>
     </row>
     <row r="4" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="90"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="84"/>
     </row>
     <row r="5" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
+      <c r="A5" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="61"/>
       <c r="G5" s="61"/>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="90"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="84"/>
     </row>
     <row r="6" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
     </row>
     <row r="7" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="87" t="s">
         <v>627</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="88"/>
+      <c r="AB7" s="88"/>
     </row>
     <row r="8" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="79"/>
     </row>
     <row r="9" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
     </row>
     <row r="10" spans="1:31" s="68" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="63" t="s">
@@ -14533,41 +14564,41 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="46"/>
-      <c r="B75" s="83" t="s">
+      <c r="B75" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84" t="s">
+      <c r="C75" s="90"/>
+      <c r="D75" s="90"/>
+      <c r="E75" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="84" t="s">
+      <c r="F75" s="90"/>
+      <c r="G75" s="90"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="J75" s="84"/>
-      <c r="K75" s="84"/>
-      <c r="L75" s="84"/>
-      <c r="M75" s="84"/>
-      <c r="N75" s="84"/>
-      <c r="O75" s="84"/>
-      <c r="P75" s="84"/>
-      <c r="Q75" s="84"/>
-      <c r="R75" s="84"/>
-      <c r="S75" s="84" t="s">
+      <c r="J75" s="90"/>
+      <c r="K75" s="90"/>
+      <c r="L75" s="90"/>
+      <c r="M75" s="90"/>
+      <c r="N75" s="90"/>
+      <c r="O75" s="90"/>
+      <c r="P75" s="90"/>
+      <c r="Q75" s="90"/>
+      <c r="R75" s="90"/>
+      <c r="S75" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="T75" s="84"/>
-      <c r="U75" s="84"/>
-      <c r="V75" s="84"/>
-      <c r="W75" s="84"/>
-      <c r="X75" s="84"/>
-      <c r="Y75" s="84"/>
-      <c r="Z75" s="84"/>
-      <c r="AA75" s="84"/>
-      <c r="AB75" s="85"/>
+      <c r="T75" s="90"/>
+      <c r="U75" s="90"/>
+      <c r="V75" s="90"/>
+      <c r="W75" s="90"/>
+      <c r="X75" s="90"/>
+      <c r="Y75" s="90"/>
+      <c r="Z75" s="90"/>
+      <c r="AA75" s="90"/>
+      <c r="AB75" s="91"/>
       <c r="AC75" s="48"/>
       <c r="AD75" s="72"/>
     </row>
@@ -20549,6 +20580,15 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="I75:R75"/>
+    <mergeCell ref="S75:AB75"/>
+    <mergeCell ref="A9:AB9"/>
+    <mergeCell ref="A6:AB6"/>
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="A8:AB8"/>
     <mergeCell ref="A2:E2"/>
@@ -20557,15 +20597,6 @@
     <mergeCell ref="H3:AE3"/>
     <mergeCell ref="H4:AE4"/>
     <mergeCell ref="H5:AE5"/>
-    <mergeCell ref="A9:AB9"/>
-    <mergeCell ref="A6:AB6"/>
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="I75:R75"/>
-    <mergeCell ref="S75:AB75"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20574,15 +20605,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ144"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F92" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="Y22" sqref="Y22"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -20597,329 +20628,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="97"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="93"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="88" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="90"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="84"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="91">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="85">
         <v>41086</v>
       </c>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="90"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="84"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="88" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="90"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="84"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="88" t="s">
+      <c r="A5" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="90"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="84"/>
     </row>
     <row r="6" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="95"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="92"/>
     </row>
     <row r="7" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="96"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="88"/>
+      <c r="AB7" s="88"/>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="88"/>
+      <c r="AE7" s="97"/>
     </row>
     <row r="8" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="95"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="92"/>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-    </row>
-    <row r="10" spans="1:35" s="42" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+    </row>
+    <row r="10" spans="1:35" s="42" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>72</v>
       </c>
@@ -20950,8 +20981,8 @@
       <c r="J10" s="40" t="s">
         <v>604</v>
       </c>
-      <c r="K10" s="39">
-        <v>1</v>
+      <c r="K10" s="117" t="s">
+        <v>645</v>
       </c>
       <c r="L10" s="39" t="s">
         <v>605</v>
@@ -27748,45 +27779,45 @@
     </row>
     <row r="75" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="46"/>
-      <c r="B75" s="83" t="s">
+      <c r="B75" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84" t="s">
+      <c r="C75" s="90"/>
+      <c r="D75" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="84" t="s">
+      <c r="E75" s="90"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="90"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="J75" s="84"/>
-      <c r="K75" s="84"/>
-      <c r="L75" s="84"/>
-      <c r="M75" s="84"/>
-      <c r="N75" s="84"/>
-      <c r="O75" s="94"/>
-      <c r="P75" s="84"/>
-      <c r="Q75" s="84"/>
-      <c r="R75" s="84" t="s">
+      <c r="J75" s="90"/>
+      <c r="K75" s="90"/>
+      <c r="L75" s="90"/>
+      <c r="M75" s="90"/>
+      <c r="N75" s="90"/>
+      <c r="O75" s="96"/>
+      <c r="P75" s="90"/>
+      <c r="Q75" s="90"/>
+      <c r="R75" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="S75" s="84"/>
-      <c r="T75" s="84"/>
-      <c r="U75" s="84"/>
-      <c r="V75" s="84"/>
-      <c r="W75" s="84"/>
-      <c r="X75" s="84"/>
-      <c r="Y75" s="84"/>
-      <c r="Z75" s="84"/>
-      <c r="AA75" s="84"/>
-      <c r="AB75" s="84"/>
-      <c r="AC75" s="84"/>
-      <c r="AD75" s="84"/>
-      <c r="AE75" s="84"/>
-      <c r="AF75" s="84"/>
+      <c r="S75" s="90"/>
+      <c r="T75" s="90"/>
+      <c r="U75" s="90"/>
+      <c r="V75" s="90"/>
+      <c r="W75" s="90"/>
+      <c r="X75" s="90"/>
+      <c r="Y75" s="90"/>
+      <c r="Z75" s="90"/>
+      <c r="AA75" s="90"/>
+      <c r="AB75" s="90"/>
+      <c r="AC75" s="90"/>
+      <c r="AD75" s="90"/>
+      <c r="AE75" s="90"/>
+      <c r="AF75" s="90"/>
       <c r="AG75" s="47" t="s">
         <v>85</v>
       </c>
@@ -28002,40 +28033,40 @@
       </c>
     </row>
     <row r="78" spans="1:36" s="51" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="92" t="s">
+      <c r="B78" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="92"/>
-      <c r="F78" s="92"/>
-      <c r="G78" s="92"/>
-      <c r="H78" s="92"/>
-      <c r="I78" s="92"/>
-      <c r="J78" s="92"/>
-      <c r="K78" s="92"/>
-      <c r="L78" s="92"/>
-      <c r="M78" s="92"/>
-      <c r="N78" s="92"/>
-      <c r="O78" s="92"/>
-      <c r="P78" s="92"/>
-      <c r="Q78" s="92"/>
-      <c r="R78" s="92"/>
-      <c r="S78" s="92"/>
-      <c r="T78" s="92"/>
-      <c r="U78" s="92"/>
-      <c r="V78" s="92"/>
-      <c r="W78" s="92"/>
-      <c r="X78" s="92"/>
-      <c r="Y78" s="92"/>
-      <c r="Z78" s="92"/>
-      <c r="AA78" s="92"/>
-      <c r="AB78" s="92"/>
-      <c r="AC78" s="92"/>
-      <c r="AD78" s="92"/>
-      <c r="AE78" s="92"/>
-      <c r="AF78" s="92"/>
-      <c r="AG78" s="92"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="95"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="95"/>
+      <c r="K78" s="95"/>
+      <c r="L78" s="95"/>
+      <c r="M78" s="95"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="95"/>
+      <c r="P78" s="95"/>
+      <c r="Q78" s="95"/>
+      <c r="R78" s="95"/>
+      <c r="S78" s="95"/>
+      <c r="T78" s="95"/>
+      <c r="U78" s="95"/>
+      <c r="V78" s="95"/>
+      <c r="W78" s="95"/>
+      <c r="X78" s="95"/>
+      <c r="Y78" s="95"/>
+      <c r="Z78" s="95"/>
+      <c r="AA78" s="95"/>
+      <c r="AB78" s="95"/>
+      <c r="AC78" s="95"/>
+      <c r="AD78" s="95"/>
+      <c r="AE78" s="95"/>
+      <c r="AF78" s="95"/>
+      <c r="AG78" s="95"/>
     </row>
     <row r="79" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K79" s="38" t="s">
@@ -34792,14 +34823,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A8:AE8"/>
-    <mergeCell ref="A9:AE9"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="H2:AE2"/>
-    <mergeCell ref="H3:AE3"/>
-    <mergeCell ref="H4:AE4"/>
-    <mergeCell ref="H5:AE5"/>
-    <mergeCell ref="A2:G2"/>
     <mergeCell ref="R75:AF75"/>
     <mergeCell ref="B78:AG78"/>
     <mergeCell ref="A3:G3"/>
@@ -34810,6 +34833,14 @@
     <mergeCell ref="I75:Q75"/>
     <mergeCell ref="A6:AE6"/>
     <mergeCell ref="A7:AE7"/>
+    <mergeCell ref="A8:AE8"/>
+    <mergeCell ref="A9:AE9"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="H2:AE2"/>
+    <mergeCell ref="H3:AE3"/>
+    <mergeCell ref="H4:AE4"/>
+    <mergeCell ref="H5:AE5"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34818,7 +34849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK143"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
@@ -34842,39 +34873,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="115"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="104"/>
     </row>
     <row r="2" spans="1:36" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
@@ -34923,7 +34954,7 @@
       <c r="E3" s="98"/>
       <c r="F3" s="98"/>
       <c r="G3" s="98"/>
-      <c r="H3" s="116">
+      <c r="H3" s="105">
         <v>41088</v>
       </c>
       <c r="I3" s="100"/>
@@ -35025,144 +35056,144 @@
       <c r="AE5" s="101"/>
     </row>
     <row r="6" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="106" t="s">
         <v>569</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
-      <c r="Z6" s="103"/>
-      <c r="AA6" s="103"/>
-      <c r="AB6" s="103"/>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="108"/>
     </row>
     <row r="7" spans="1:36" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110"/>
-      <c r="V7" s="110"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="110"/>
-      <c r="Z7" s="110"/>
-      <c r="AA7" s="110"/>
-      <c r="AB7" s="110"/>
-      <c r="AC7" s="110"/>
-      <c r="AD7" s="110"/>
-      <c r="AE7" s="111"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="114"/>
+      <c r="AE7" s="115"/>
     </row>
     <row r="8" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="104"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="108"/>
     </row>
     <row r="9" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="112"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="112"/>
-      <c r="AB9" s="112"/>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="112"/>
-      <c r="AE9" s="112"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="116"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="116"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="116"/>
     </row>
     <row r="10" spans="1:36" s="22" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
@@ -42190,43 +42221,43 @@
       <c r="B75" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="105" t="s">
+      <c r="C75" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="105"/>
-      <c r="E75" s="105"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="105"/>
-      <c r="H75" s="105"/>
-      <c r="I75" s="105"/>
-      <c r="J75" s="106" t="s">
+      <c r="D75" s="109"/>
+      <c r="E75" s="109"/>
+      <c r="F75" s="109"/>
+      <c r="G75" s="109"/>
+      <c r="H75" s="109"/>
+      <c r="I75" s="109"/>
+      <c r="J75" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="K75" s="107"/>
-      <c r="L75" s="107"/>
-      <c r="M75" s="107"/>
-      <c r="N75" s="107"/>
-      <c r="O75" s="107"/>
-      <c r="P75" s="108"/>
-      <c r="Q75" s="105" t="s">
+      <c r="K75" s="111"/>
+      <c r="L75" s="111"/>
+      <c r="M75" s="111"/>
+      <c r="N75" s="111"/>
+      <c r="O75" s="111"/>
+      <c r="P75" s="112"/>
+      <c r="Q75" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="R75" s="105"/>
-      <c r="S75" s="105"/>
-      <c r="T75" s="105"/>
-      <c r="U75" s="105"/>
-      <c r="V75" s="105"/>
-      <c r="W75" s="105"/>
-      <c r="X75" s="105"/>
-      <c r="Y75" s="105"/>
-      <c r="Z75" s="105"/>
-      <c r="AA75" s="105"/>
-      <c r="AB75" s="105"/>
-      <c r="AC75" s="105"/>
-      <c r="AD75" s="105"/>
-      <c r="AE75" s="105"/>
-      <c r="AF75" s="105"/>
-      <c r="AG75" s="105"/>
+      <c r="R75" s="109"/>
+      <c r="S75" s="109"/>
+      <c r="T75" s="109"/>
+      <c r="U75" s="109"/>
+      <c r="V75" s="109"/>
+      <c r="W75" s="109"/>
+      <c r="X75" s="109"/>
+      <c r="Y75" s="109"/>
+      <c r="Z75" s="109"/>
+      <c r="AA75" s="109"/>
+      <c r="AB75" s="109"/>
+      <c r="AC75" s="109"/>
+      <c r="AD75" s="109"/>
+      <c r="AE75" s="109"/>
+      <c r="AF75" s="109"/>
+      <c r="AG75" s="109"/>
       <c r="AH75" s="28" t="s">
         <v>84</v>
       </c>
@@ -49407,13 +49438,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="H4:AE4"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:AE2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:AE3"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H5:AE5"/>
     <mergeCell ref="A6:AE6"/>
@@ -49423,6 +49447,13 @@
     <mergeCell ref="A7:AE7"/>
     <mergeCell ref="A8:AE8"/>
     <mergeCell ref="A9:AE9"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:AE4"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:AE2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -49431,7 +49462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G372"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -56203,6 +56234,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E0C724CCBB7FB24794473D558C897B81" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86d9b256e064198c05d6efa412f72bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="14f82cd5-dea2-47e7-b602-401f39b9480a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d018442e514e3a48a93ea56c159054e" ns2:_="">
     <xsd:import namespace="14f82cd5-dea2-47e7-b602-401f39b9480a"/>
@@ -56348,22 +56394,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498E1E47-19AB-4689-AFBF-A9E7F3AC94EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58338D5B-5713-45A9-B1B3-B02B6F3E9B74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BBC144-9A3F-4D7B-855B-83638B65E4AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56379,21 +56427,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58338D5B-5713-45A9-B1B3-B02B6F3E9B74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498E1E47-19AB-4689-AFBF-A9E7F3AC94EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Iran-Mazandaran-Javaherdeh site.xlsx
+++ b/Iran-Mazandaran-Javaherdeh site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRU\Iran_data\CSV\Iran_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EC4FE8-87B7-4C9B-ACC0-68946D741827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295554CF-164C-44C6-88AB-C7870574118A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excolure area" sheetId="3" r:id="rId1"/>
@@ -7920,11 +7920,18 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7933,10 +7940,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7950,41 +7969,23 @@
     <xf numFmtId="15" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7996,18 +7997,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8043,7 +8032,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8403,312 +8403,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
     </row>
     <row r="2" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="61"/>
       <c r="G2" s="61"/>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="84"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="91"/>
     </row>
     <row r="3" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
       <c r="E3" s="62"/>
       <c r="F3" s="61"/>
       <c r="G3" s="61"/>
-      <c r="H3" s="85">
+      <c r="H3" s="92">
         <v>41076</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="83"/>
-      <c r="AE3" s="84"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="91"/>
     </row>
     <row r="4" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="84"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="91"/>
     </row>
     <row r="5" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="A5" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
       <c r="F5" s="61"/>
       <c r="G5" s="61"/>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="84"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="91"/>
     </row>
     <row r="6" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
     </row>
     <row r="7" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="83" t="s">
         <v>627</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="88"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="84"/>
     </row>
     <row r="8" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
     </row>
     <row r="9" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
     </row>
     <row r="10" spans="1:31" s="68" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="63" t="s">
@@ -14564,41 +14564,41 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="46"/>
-      <c r="B75" s="89" t="s">
+      <c r="B75" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="90"/>
-      <c r="D75" s="90"/>
-      <c r="E75" s="90" t="s">
+      <c r="C75" s="78"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="F75" s="90"/>
-      <c r="G75" s="90"/>
-      <c r="H75" s="90"/>
-      <c r="I75" s="90" t="s">
+      <c r="F75" s="78"/>
+      <c r="G75" s="78"/>
+      <c r="H75" s="78"/>
+      <c r="I75" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="J75" s="90"/>
-      <c r="K75" s="90"/>
-      <c r="L75" s="90"/>
-      <c r="M75" s="90"/>
-      <c r="N75" s="90"/>
-      <c r="O75" s="90"/>
-      <c r="P75" s="90"/>
-      <c r="Q75" s="90"/>
-      <c r="R75" s="90"/>
-      <c r="S75" s="90" t="s">
+      <c r="J75" s="78"/>
+      <c r="K75" s="78"/>
+      <c r="L75" s="78"/>
+      <c r="M75" s="78"/>
+      <c r="N75" s="78"/>
+      <c r="O75" s="78"/>
+      <c r="P75" s="78"/>
+      <c r="Q75" s="78"/>
+      <c r="R75" s="78"/>
+      <c r="S75" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="T75" s="90"/>
-      <c r="U75" s="90"/>
-      <c r="V75" s="90"/>
-      <c r="W75" s="90"/>
-      <c r="X75" s="90"/>
-      <c r="Y75" s="90"/>
-      <c r="Z75" s="90"/>
-      <c r="AA75" s="90"/>
-      <c r="AB75" s="91"/>
+      <c r="T75" s="78"/>
+      <c r="U75" s="78"/>
+      <c r="V75" s="78"/>
+      <c r="W75" s="78"/>
+      <c r="X75" s="78"/>
+      <c r="Y75" s="78"/>
+      <c r="Z75" s="78"/>
+      <c r="AA75" s="78"/>
+      <c r="AB75" s="79"/>
       <c r="AC75" s="48"/>
       <c r="AD75" s="72"/>
     </row>
@@ -20580,16 +20580,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="I75:R75"/>
-    <mergeCell ref="S75:AB75"/>
-    <mergeCell ref="A9:AB9"/>
-    <mergeCell ref="A6:AB6"/>
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A1:AB1"/>
     <mergeCell ref="A8:AB8"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:D3"/>
@@ -20597,6 +20587,16 @@
     <mergeCell ref="H3:AE3"/>
     <mergeCell ref="H4:AE4"/>
     <mergeCell ref="H5:AE5"/>
+    <mergeCell ref="A6:AB6"/>
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="I75:R75"/>
+    <mergeCell ref="S75:AB75"/>
+    <mergeCell ref="A9:AB9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20628,39 +20628,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="93"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="98"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="s">
@@ -20672,32 +20672,32 @@
       <c r="E2" s="94"/>
       <c r="F2" s="94"/>
       <c r="G2" s="94"/>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="84"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="91"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="94" t="s">
@@ -20709,32 +20709,32 @@
       <c r="E3" s="94"/>
       <c r="F3" s="94"/>
       <c r="G3" s="94"/>
-      <c r="H3" s="85">
+      <c r="H3" s="92">
         <v>41086</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="83"/>
-      <c r="AE3" s="84"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="91"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="94" t="s">
@@ -20746,32 +20746,32 @@
       <c r="E4" s="94"/>
       <c r="F4" s="94"/>
       <c r="G4" s="94"/>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="84"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="91"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="94" t="s">
@@ -20783,172 +20783,172 @@
       <c r="E5" s="94"/>
       <c r="F5" s="94"/>
       <c r="G5" s="94"/>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="84"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="91"/>
     </row>
     <row r="6" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="92"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="96"/>
     </row>
     <row r="7" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="88"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="88"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="84"/>
       <c r="AE7" s="97"/>
     </row>
     <row r="8" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="92"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="96"/>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="80"/>
     </row>
     <row r="10" spans="1:35" s="42" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
@@ -20981,7 +20981,7 @@
       <c r="J10" s="40" t="s">
         <v>604</v>
       </c>
-      <c r="K10" s="117" t="s">
+      <c r="K10" s="76" t="s">
         <v>645</v>
       </c>
       <c r="L10" s="39" t="s">
@@ -27779,45 +27779,45 @@
     </row>
     <row r="75" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="46"/>
-      <c r="B75" s="89" t="s">
+      <c r="B75" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="90"/>
-      <c r="D75" s="90" t="s">
+      <c r="C75" s="78"/>
+      <c r="D75" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="E75" s="90"/>
-      <c r="F75" s="90"/>
-      <c r="G75" s="90"/>
-      <c r="H75" s="90"/>
-      <c r="I75" s="90" t="s">
+      <c r="E75" s="78"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="78"/>
+      <c r="H75" s="78"/>
+      <c r="I75" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="J75" s="90"/>
-      <c r="K75" s="90"/>
-      <c r="L75" s="90"/>
-      <c r="M75" s="90"/>
-      <c r="N75" s="90"/>
-      <c r="O75" s="96"/>
-      <c r="P75" s="90"/>
-      <c r="Q75" s="90"/>
-      <c r="R75" s="90" t="s">
+      <c r="J75" s="78"/>
+      <c r="K75" s="78"/>
+      <c r="L75" s="78"/>
+      <c r="M75" s="78"/>
+      <c r="N75" s="78"/>
+      <c r="O75" s="95"/>
+      <c r="P75" s="78"/>
+      <c r="Q75" s="78"/>
+      <c r="R75" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="S75" s="90"/>
-      <c r="T75" s="90"/>
-      <c r="U75" s="90"/>
-      <c r="V75" s="90"/>
-      <c r="W75" s="90"/>
-      <c r="X75" s="90"/>
-      <c r="Y75" s="90"/>
-      <c r="Z75" s="90"/>
-      <c r="AA75" s="90"/>
-      <c r="AB75" s="90"/>
-      <c r="AC75" s="90"/>
-      <c r="AD75" s="90"/>
-      <c r="AE75" s="90"/>
-      <c r="AF75" s="90"/>
+      <c r="S75" s="78"/>
+      <c r="T75" s="78"/>
+      <c r="U75" s="78"/>
+      <c r="V75" s="78"/>
+      <c r="W75" s="78"/>
+      <c r="X75" s="78"/>
+      <c r="Y75" s="78"/>
+      <c r="Z75" s="78"/>
+      <c r="AA75" s="78"/>
+      <c r="AB75" s="78"/>
+      <c r="AC75" s="78"/>
+      <c r="AD75" s="78"/>
+      <c r="AE75" s="78"/>
+      <c r="AF75" s="78"/>
       <c r="AG75" s="47" t="s">
         <v>85</v>
       </c>
@@ -28033,40 +28033,40 @@
       </c>
     </row>
     <row r="78" spans="1:36" s="51" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="95" t="s">
+      <c r="B78" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="95"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="95"/>
-      <c r="I78" s="95"/>
-      <c r="J78" s="95"/>
-      <c r="K78" s="95"/>
-      <c r="L78" s="95"/>
-      <c r="M78" s="95"/>
-      <c r="N78" s="95"/>
-      <c r="O78" s="95"/>
-      <c r="P78" s="95"/>
-      <c r="Q78" s="95"/>
-      <c r="R78" s="95"/>
-      <c r="S78" s="95"/>
-      <c r="T78" s="95"/>
-      <c r="U78" s="95"/>
-      <c r="V78" s="95"/>
-      <c r="W78" s="95"/>
-      <c r="X78" s="95"/>
-      <c r="Y78" s="95"/>
-      <c r="Z78" s="95"/>
-      <c r="AA78" s="95"/>
-      <c r="AB78" s="95"/>
-      <c r="AC78" s="95"/>
-      <c r="AD78" s="95"/>
-      <c r="AE78" s="95"/>
-      <c r="AF78" s="95"/>
-      <c r="AG78" s="95"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="93"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="93"/>
+      <c r="G78" s="93"/>
+      <c r="H78" s="93"/>
+      <c r="I78" s="93"/>
+      <c r="J78" s="93"/>
+      <c r="K78" s="93"/>
+      <c r="L78" s="93"/>
+      <c r="M78" s="93"/>
+      <c r="N78" s="93"/>
+      <c r="O78" s="93"/>
+      <c r="P78" s="93"/>
+      <c r="Q78" s="93"/>
+      <c r="R78" s="93"/>
+      <c r="S78" s="93"/>
+      <c r="T78" s="93"/>
+      <c r="U78" s="93"/>
+      <c r="V78" s="93"/>
+      <c r="W78" s="93"/>
+      <c r="X78" s="93"/>
+      <c r="Y78" s="93"/>
+      <c r="Z78" s="93"/>
+      <c r="AA78" s="93"/>
+      <c r="AB78" s="93"/>
+      <c r="AC78" s="93"/>
+      <c r="AD78" s="93"/>
+      <c r="AE78" s="93"/>
+      <c r="AF78" s="93"/>
+      <c r="AG78" s="93"/>
     </row>
     <row r="79" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K79" s="38" t="s">
@@ -34823,6 +34823,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="H2:AE2"/>
+    <mergeCell ref="H3:AE3"/>
+    <mergeCell ref="H4:AE4"/>
+    <mergeCell ref="H5:AE5"/>
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="R75:AF75"/>
     <mergeCell ref="B78:AG78"/>
     <mergeCell ref="A3:G3"/>
@@ -34835,12 +34841,6 @@
     <mergeCell ref="A7:AE7"/>
     <mergeCell ref="A8:AE8"/>
     <mergeCell ref="A9:AE9"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="H2:AE2"/>
-    <mergeCell ref="H3:AE3"/>
-    <mergeCell ref="H4:AE4"/>
-    <mergeCell ref="H5:AE5"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34873,327 +34873,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="104"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="116"/>
     </row>
     <row r="2" spans="1:36" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="99" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="102"/>
     </row>
     <row r="3" spans="1:36" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="105">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="117">
         <v>41088</v>
       </c>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="102"/>
     </row>
     <row r="4" spans="1:36" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="102"/>
     </row>
     <row r="5" spans="1:36" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="99" t="s">
+      <c r="A5" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="100"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="102"/>
     </row>
     <row r="6" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="103" t="s">
         <v>569</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="107"/>
-      <c r="AA6" s="107"/>
-      <c r="AB6" s="107"/>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="108"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="105"/>
     </row>
     <row r="7" spans="1:36" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="110" t="s">
         <v>570</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="114"/>
-      <c r="AB7" s="114"/>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="114"/>
-      <c r="AE7" s="115"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="112"/>
     </row>
     <row r="8" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="108"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="105"/>
     </row>
     <row r="9" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="116"/>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="116"/>
-      <c r="AB9" s="116"/>
-      <c r="AC9" s="116"/>
-      <c r="AD9" s="116"/>
-      <c r="AE9" s="116"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="113"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
+      <c r="V9" s="113"/>
+      <c r="W9" s="113"/>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="113"/>
+      <c r="Z9" s="113"/>
+      <c r="AA9" s="113"/>
+      <c r="AB9" s="113"/>
+      <c r="AC9" s="113"/>
+      <c r="AD9" s="113"/>
+      <c r="AE9" s="113"/>
     </row>
     <row r="10" spans="1:36" s="22" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
@@ -42221,43 +42221,43 @@
       <c r="B75" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="109" t="s">
+      <c r="C75" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="109"/>
-      <c r="E75" s="109"/>
-      <c r="F75" s="109"/>
-      <c r="G75" s="109"/>
-      <c r="H75" s="109"/>
-      <c r="I75" s="109"/>
-      <c r="J75" s="110" t="s">
+      <c r="D75" s="106"/>
+      <c r="E75" s="106"/>
+      <c r="F75" s="106"/>
+      <c r="G75" s="106"/>
+      <c r="H75" s="106"/>
+      <c r="I75" s="106"/>
+      <c r="J75" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="K75" s="111"/>
-      <c r="L75" s="111"/>
-      <c r="M75" s="111"/>
-      <c r="N75" s="111"/>
-      <c r="O75" s="111"/>
-      <c r="P75" s="112"/>
-      <c r="Q75" s="109" t="s">
+      <c r="K75" s="108"/>
+      <c r="L75" s="108"/>
+      <c r="M75" s="108"/>
+      <c r="N75" s="108"/>
+      <c r="O75" s="108"/>
+      <c r="P75" s="109"/>
+      <c r="Q75" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="R75" s="109"/>
-      <c r="S75" s="109"/>
-      <c r="T75" s="109"/>
-      <c r="U75" s="109"/>
-      <c r="V75" s="109"/>
-      <c r="W75" s="109"/>
-      <c r="X75" s="109"/>
-      <c r="Y75" s="109"/>
-      <c r="Z75" s="109"/>
-      <c r="AA75" s="109"/>
-      <c r="AB75" s="109"/>
-      <c r="AC75" s="109"/>
-      <c r="AD75" s="109"/>
-      <c r="AE75" s="109"/>
-      <c r="AF75" s="109"/>
-      <c r="AG75" s="109"/>
+      <c r="R75" s="106"/>
+      <c r="S75" s="106"/>
+      <c r="T75" s="106"/>
+      <c r="U75" s="106"/>
+      <c r="V75" s="106"/>
+      <c r="W75" s="106"/>
+      <c r="X75" s="106"/>
+      <c r="Y75" s="106"/>
+      <c r="Z75" s="106"/>
+      <c r="AA75" s="106"/>
+      <c r="AB75" s="106"/>
+      <c r="AC75" s="106"/>
+      <c r="AD75" s="106"/>
+      <c r="AE75" s="106"/>
+      <c r="AF75" s="106"/>
+      <c r="AG75" s="106"/>
       <c r="AH75" s="28" t="s">
         <v>84</v>
       </c>
@@ -49438,6 +49438,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:AE4"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:AE2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:AE3"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H5:AE5"/>
     <mergeCell ref="A6:AE6"/>
@@ -49447,13 +49454,6 @@
     <mergeCell ref="A7:AE7"/>
     <mergeCell ref="A8:AE8"/>
     <mergeCell ref="A9:AE9"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="H4:AE4"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:AE2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -56234,21 +56234,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E0C724CCBB7FB24794473D558C897B81" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86d9b256e064198c05d6efa412f72bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="14f82cd5-dea2-47e7-b602-401f39b9480a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d018442e514e3a48a93ea56c159054e" ns2:_="">
     <xsd:import namespace="14f82cd5-dea2-47e7-b602-401f39b9480a"/>
@@ -56394,24 +56379,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498E1E47-19AB-4689-AFBF-A9E7F3AC94EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58338D5B-5713-45A9-B1B3-B02B6F3E9B74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BBC144-9A3F-4D7B-855B-83638B65E4AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56427,4 +56410,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58338D5B-5713-45A9-B1B3-B02B6F3E9B74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498E1E47-19AB-4689-AFBF-A9E7F3AC94EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Iran-Mazandaran-Javaherdeh site.xlsx
+++ b/Iran-Mazandaran-Javaherdeh site.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRU\Iran_data\CSV\Iran_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRU\Iran_data\CSV\Iran_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295554CF-164C-44C6-88AB-C7870574118A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC43636-C81B-4EDB-80CA-B8EAD30228DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excolure area" sheetId="3" r:id="rId1"/>
     <sheet name="Grazing area 1" sheetId="1" r:id="rId2"/>
     <sheet name="Grazing area 2" sheetId="2" r:id="rId3"/>
-    <sheet name="floristic list" sheetId="5" r:id="rId4"/>
+    <sheet name="Floristic list" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Excolure area'!$A$79:$AF$142</definedName>
@@ -7921,18 +7921,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7940,22 +7928,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7969,10 +7945,37 @@
     <xf numFmtId="15" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7984,9 +7987,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7997,6 +7997,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8031,18 +8043,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8392,14 +8392,14 @@
       <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="38" customWidth="1"/>
-    <col min="2" max="7" width="6.7265625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="48" customWidth="1"/>
-    <col min="9" max="29" width="6.7265625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" style="38" customWidth="1"/>
+    <col min="2" max="7" width="6.77734375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" style="48" customWidth="1"/>
+    <col min="9" max="29" width="6.77734375" style="38" customWidth="1"/>
     <col min="30" max="30" width="6" style="38" customWidth="1"/>
-    <col min="31" max="16384" width="9.1796875" style="38"/>
+    <col min="31" max="16384" width="9.21875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8435,282 +8435,282 @@
       <c r="AB1" s="88"/>
     </row>
     <row r="2" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="61"/>
       <c r="G2" s="61"/>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="91"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="83"/>
     </row>
     <row r="3" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="62"/>
       <c r="F3" s="61"/>
       <c r="G3" s="61"/>
-      <c r="H3" s="92">
+      <c r="H3" s="84">
         <v>41076</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="91"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="83"/>
     </row>
     <row r="4" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="91"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="83"/>
     </row>
     <row r="5" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
+      <c r="A5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="61"/>
       <c r="G5" s="61"/>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="91"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="83"/>
     </row>
     <row r="6" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
     </row>
     <row r="7" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="85" t="s">
         <v>627</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
     </row>
     <row r="8" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="78"/>
     </row>
     <row r="9" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-    </row>
-    <row r="10" spans="1:31" s="68" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+    </row>
+    <row r="10" spans="1:31" s="68" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
         <v>72</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>26.77</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="52" t="s">
         <v>67</v>
       </c>
@@ -14564,41 +14564,41 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="46"/>
-      <c r="B75" s="77" t="s">
+      <c r="B75" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="78"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="78" t="s">
+      <c r="C75" s="90"/>
+      <c r="D75" s="90"/>
+      <c r="E75" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="F75" s="78"/>
-      <c r="G75" s="78"/>
-      <c r="H75" s="78"/>
-      <c r="I75" s="78" t="s">
+      <c r="F75" s="90"/>
+      <c r="G75" s="90"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="J75" s="78"/>
-      <c r="K75" s="78"/>
-      <c r="L75" s="78"/>
-      <c r="M75" s="78"/>
-      <c r="N75" s="78"/>
-      <c r="O75" s="78"/>
-      <c r="P75" s="78"/>
-      <c r="Q75" s="78"/>
-      <c r="R75" s="78"/>
-      <c r="S75" s="78" t="s">
+      <c r="J75" s="90"/>
+      <c r="K75" s="90"/>
+      <c r="L75" s="90"/>
+      <c r="M75" s="90"/>
+      <c r="N75" s="90"/>
+      <c r="O75" s="90"/>
+      <c r="P75" s="90"/>
+      <c r="Q75" s="90"/>
+      <c r="R75" s="90"/>
+      <c r="S75" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="T75" s="78"/>
-      <c r="U75" s="78"/>
-      <c r="V75" s="78"/>
-      <c r="W75" s="78"/>
-      <c r="X75" s="78"/>
-      <c r="Y75" s="78"/>
-      <c r="Z75" s="78"/>
-      <c r="AA75" s="78"/>
-      <c r="AB75" s="79"/>
+      <c r="T75" s="90"/>
+      <c r="U75" s="90"/>
+      <c r="V75" s="90"/>
+      <c r="W75" s="90"/>
+      <c r="X75" s="90"/>
+      <c r="Y75" s="90"/>
+      <c r="Z75" s="90"/>
+      <c r="AA75" s="90"/>
+      <c r="AB75" s="91"/>
       <c r="AC75" s="48"/>
       <c r="AD75" s="72"/>
     </row>
@@ -20491,7 +20491,7 @@
         <v>11.625</v>
       </c>
     </row>
-    <row r="143" spans="1:29" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" s="56" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A143" s="56" t="s">
         <v>595</v>
       </c>
@@ -20580,6 +20580,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="I75:R75"/>
+    <mergeCell ref="S75:AB75"/>
+    <mergeCell ref="A9:AB9"/>
     <mergeCell ref="A8:AB8"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:D3"/>
@@ -20591,12 +20597,6 @@
     <mergeCell ref="A7:AB7"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="I75:R75"/>
-    <mergeCell ref="S75:AB75"/>
-    <mergeCell ref="A9:AB9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20608,7 +20608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
@@ -20616,15 +20616,15 @@
       <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" style="38" customWidth="1"/>
-    <col min="2" max="20" width="5.7265625" style="38" customWidth="1"/>
-    <col min="21" max="21" width="5.7265625" style="42" customWidth="1"/>
-    <col min="22" max="25" width="5.7265625" style="38" customWidth="1"/>
-    <col min="26" max="26" width="5.7265625" style="42" customWidth="1"/>
-    <col min="27" max="35" width="5.7265625" style="38" customWidth="1"/>
-    <col min="36" max="16384" width="9.1796875" style="38"/>
+    <col min="1" max="1" width="4.21875" style="38" customWidth="1"/>
+    <col min="2" max="20" width="5.77734375" style="38" customWidth="1"/>
+    <col min="21" max="21" width="5.77734375" style="42" customWidth="1"/>
+    <col min="22" max="25" width="5.77734375" style="38" customWidth="1"/>
+    <col min="26" max="26" width="5.77734375" style="42" customWidth="1"/>
+    <col min="27" max="35" width="5.77734375" style="38" customWidth="1"/>
+    <col min="36" max="16384" width="9.21875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -20660,7 +20660,7 @@
       <c r="AB1" s="88"/>
       <c r="AC1" s="88"/>
       <c r="AD1" s="88"/>
-      <c r="AE1" s="98"/>
+      <c r="AE1" s="93"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="s">
@@ -20672,32 +20672,32 @@
       <c r="E2" s="94"/>
       <c r="F2" s="94"/>
       <c r="G2" s="94"/>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="91"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="83"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="94" t="s">
@@ -20709,32 +20709,32 @@
       <c r="E3" s="94"/>
       <c r="F3" s="94"/>
       <c r="G3" s="94"/>
-      <c r="H3" s="92">
+      <c r="H3" s="84">
         <v>41086</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="91"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="83"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="94" t="s">
@@ -20746,32 +20746,32 @@
       <c r="E4" s="94"/>
       <c r="F4" s="94"/>
       <c r="G4" s="94"/>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="91"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="83"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="94" t="s">
@@ -20783,174 +20783,174 @@
       <c r="E5" s="94"/>
       <c r="F5" s="94"/>
       <c r="G5" s="94"/>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="91"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="83"/>
     </row>
     <row r="6" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="96"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="97"/>
     </row>
     <row r="7" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="97"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="98"/>
     </row>
     <row r="8" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="96"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="78"/>
+      <c r="AE8" s="97"/>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="80"/>
-    </row>
-    <row r="10" spans="1:35" s="42" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92"/>
+    </row>
+    <row r="10" spans="1:35" s="42" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>72</v>
       </c>
@@ -27779,45 +27779,45 @@
     </row>
     <row r="75" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="46"/>
-      <c r="B75" s="77" t="s">
+      <c r="B75" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="78"/>
-      <c r="D75" s="78" t="s">
+      <c r="C75" s="90"/>
+      <c r="D75" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="E75" s="78"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="78"/>
-      <c r="H75" s="78"/>
-      <c r="I75" s="78" t="s">
+      <c r="E75" s="90"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="90"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="J75" s="78"/>
-      <c r="K75" s="78"/>
-      <c r="L75" s="78"/>
-      <c r="M75" s="78"/>
-      <c r="N75" s="78"/>
-      <c r="O75" s="95"/>
-      <c r="P75" s="78"/>
-      <c r="Q75" s="78"/>
-      <c r="R75" s="78" t="s">
+      <c r="J75" s="90"/>
+      <c r="K75" s="90"/>
+      <c r="L75" s="90"/>
+      <c r="M75" s="90"/>
+      <c r="N75" s="90"/>
+      <c r="O75" s="96"/>
+      <c r="P75" s="90"/>
+      <c r="Q75" s="90"/>
+      <c r="R75" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="S75" s="78"/>
-      <c r="T75" s="78"/>
-      <c r="U75" s="78"/>
-      <c r="V75" s="78"/>
-      <c r="W75" s="78"/>
-      <c r="X75" s="78"/>
-      <c r="Y75" s="78"/>
-      <c r="Z75" s="78"/>
-      <c r="AA75" s="78"/>
-      <c r="AB75" s="78"/>
-      <c r="AC75" s="78"/>
-      <c r="AD75" s="78"/>
-      <c r="AE75" s="78"/>
-      <c r="AF75" s="78"/>
+      <c r="S75" s="90"/>
+      <c r="T75" s="90"/>
+      <c r="U75" s="90"/>
+      <c r="V75" s="90"/>
+      <c r="W75" s="90"/>
+      <c r="X75" s="90"/>
+      <c r="Y75" s="90"/>
+      <c r="Z75" s="90"/>
+      <c r="AA75" s="90"/>
+      <c r="AB75" s="90"/>
+      <c r="AC75" s="90"/>
+      <c r="AD75" s="90"/>
+      <c r="AE75" s="90"/>
+      <c r="AF75" s="90"/>
       <c r="AG75" s="47" t="s">
         <v>85</v>
       </c>
@@ -28033,40 +28033,40 @@
       </c>
     </row>
     <row r="78" spans="1:36" s="51" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="93" t="s">
+      <c r="B78" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="93"/>
-      <c r="D78" s="93"/>
-      <c r="E78" s="93"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="93"/>
-      <c r="H78" s="93"/>
-      <c r="I78" s="93"/>
-      <c r="J78" s="93"/>
-      <c r="K78" s="93"/>
-      <c r="L78" s="93"/>
-      <c r="M78" s="93"/>
-      <c r="N78" s="93"/>
-      <c r="O78" s="93"/>
-      <c r="P78" s="93"/>
-      <c r="Q78" s="93"/>
-      <c r="R78" s="93"/>
-      <c r="S78" s="93"/>
-      <c r="T78" s="93"/>
-      <c r="U78" s="93"/>
-      <c r="V78" s="93"/>
-      <c r="W78" s="93"/>
-      <c r="X78" s="93"/>
-      <c r="Y78" s="93"/>
-      <c r="Z78" s="93"/>
-      <c r="AA78" s="93"/>
-      <c r="AB78" s="93"/>
-      <c r="AC78" s="93"/>
-      <c r="AD78" s="93"/>
-      <c r="AE78" s="93"/>
-      <c r="AF78" s="93"/>
-      <c r="AG78" s="93"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="95"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="95"/>
+      <c r="K78" s="95"/>
+      <c r="L78" s="95"/>
+      <c r="M78" s="95"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="95"/>
+      <c r="P78" s="95"/>
+      <c r="Q78" s="95"/>
+      <c r="R78" s="95"/>
+      <c r="S78" s="95"/>
+      <c r="T78" s="95"/>
+      <c r="U78" s="95"/>
+      <c r="V78" s="95"/>
+      <c r="W78" s="95"/>
+      <c r="X78" s="95"/>
+      <c r="Y78" s="95"/>
+      <c r="Z78" s="95"/>
+      <c r="AA78" s="95"/>
+      <c r="AB78" s="95"/>
+      <c r="AC78" s="95"/>
+      <c r="AD78" s="95"/>
+      <c r="AE78" s="95"/>
+      <c r="AF78" s="95"/>
+      <c r="AG78" s="95"/>
     </row>
     <row r="79" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K79" s="38" t="s">
@@ -34732,7 +34732,7 @@
         <v>15.57</v>
       </c>
     </row>
-    <row r="144" spans="1:34" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" s="56" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A144" s="56" t="s">
         <v>595</v>
       </c>
@@ -34823,12 +34823,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="H2:AE2"/>
-    <mergeCell ref="H3:AE3"/>
-    <mergeCell ref="H4:AE4"/>
-    <mergeCell ref="H5:AE5"/>
-    <mergeCell ref="A2:G2"/>
     <mergeCell ref="R75:AF75"/>
     <mergeCell ref="B78:AG78"/>
     <mergeCell ref="A3:G3"/>
@@ -34841,6 +34835,12 @@
     <mergeCell ref="A7:AE7"/>
     <mergeCell ref="A8:AE8"/>
     <mergeCell ref="A9:AE9"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="H2:AE2"/>
+    <mergeCell ref="H3:AE3"/>
+    <mergeCell ref="H4:AE4"/>
+    <mergeCell ref="H5:AE5"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34860,54 +34860,54 @@
       <selection pane="bottomRight" activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" style="16" customWidth="1"/>
-    <col min="2" max="23" width="5.7265625" style="16" customWidth="1"/>
-    <col min="24" max="25" width="5.7265625" style="31" customWidth="1"/>
-    <col min="26" max="36" width="5.7265625" style="16" customWidth="1"/>
-    <col min="37" max="38" width="3.7265625" style="16" customWidth="1"/>
-    <col min="39" max="39" width="4.81640625" style="16" customWidth="1"/>
-    <col min="40" max="40" width="6.7265625" style="16" customWidth="1"/>
-    <col min="41" max="16384" width="9.1796875" style="16"/>
+    <col min="1" max="1" width="4.5546875" style="16" customWidth="1"/>
+    <col min="2" max="23" width="5.77734375" style="16" customWidth="1"/>
+    <col min="24" max="25" width="5.77734375" style="31" customWidth="1"/>
+    <col min="26" max="36" width="5.77734375" style="16" customWidth="1"/>
+    <col min="37" max="38" width="3.77734375" style="16" customWidth="1"/>
+    <col min="39" max="39" width="4.77734375" style="16" customWidth="1"/>
+    <col min="40" max="40" width="6.77734375" style="16" customWidth="1"/>
+    <col min="41" max="16384" width="9.21875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="116"/>
-    </row>
-    <row r="2" spans="1:36" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="105"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
@@ -34944,7 +34944,7 @@
       <c r="AD2" s="101"/>
       <c r="AE2" s="102"/>
     </row>
-    <row r="3" spans="1:36" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="99" t="s">
         <v>2</v>
       </c>
@@ -34954,7 +34954,7 @@
       <c r="E3" s="99"/>
       <c r="F3" s="99"/>
       <c r="G3" s="99"/>
-      <c r="H3" s="117">
+      <c r="H3" s="106">
         <v>41088</v>
       </c>
       <c r="I3" s="101"/>
@@ -34981,7 +34981,7 @@
       <c r="AD3" s="101"/>
       <c r="AE3" s="102"/>
     </row>
-    <row r="4" spans="1:36" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
         <v>3</v>
       </c>
@@ -35018,7 +35018,7 @@
       <c r="AD4" s="101"/>
       <c r="AE4" s="102"/>
     </row>
-    <row r="5" spans="1:36" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
         <v>0</v>
       </c>
@@ -35056,146 +35056,146 @@
       <c r="AE5" s="102"/>
     </row>
     <row r="6" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="107" t="s">
         <v>569</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="105"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108"/>
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="109"/>
     </row>
     <row r="7" spans="1:36" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="114" t="s">
         <v>570</v>
       </c>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="112"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="115"/>
+      <c r="AD7" s="115"/>
+      <c r="AE7" s="116"/>
     </row>
     <row r="8" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="104"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="105"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="109"/>
     </row>
     <row r="9" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="113"/>
-      <c r="AA9" s="113"/>
-      <c r="AB9" s="113"/>
-      <c r="AC9" s="113"/>
-      <c r="AD9" s="113"/>
-      <c r="AE9" s="113"/>
-    </row>
-    <row r="10" spans="1:36" s="22" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="117"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="117"/>
+      <c r="AE9" s="117"/>
+    </row>
+    <row r="10" spans="1:36" s="22" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>72</v>
       </c>
@@ -42221,43 +42221,43 @@
       <c r="B75" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="106" t="s">
+      <c r="C75" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="106"/>
-      <c r="E75" s="106"/>
-      <c r="F75" s="106"/>
-      <c r="G75" s="106"/>
-      <c r="H75" s="106"/>
-      <c r="I75" s="106"/>
-      <c r="J75" s="107" t="s">
+      <c r="D75" s="110"/>
+      <c r="E75" s="110"/>
+      <c r="F75" s="110"/>
+      <c r="G75" s="110"/>
+      <c r="H75" s="110"/>
+      <c r="I75" s="110"/>
+      <c r="J75" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="K75" s="108"/>
-      <c r="L75" s="108"/>
-      <c r="M75" s="108"/>
-      <c r="N75" s="108"/>
-      <c r="O75" s="108"/>
-      <c r="P75" s="109"/>
-      <c r="Q75" s="106" t="s">
+      <c r="K75" s="112"/>
+      <c r="L75" s="112"/>
+      <c r="M75" s="112"/>
+      <c r="N75" s="112"/>
+      <c r="O75" s="112"/>
+      <c r="P75" s="113"/>
+      <c r="Q75" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="R75" s="106"/>
-      <c r="S75" s="106"/>
-      <c r="T75" s="106"/>
-      <c r="U75" s="106"/>
-      <c r="V75" s="106"/>
-      <c r="W75" s="106"/>
-      <c r="X75" s="106"/>
-      <c r="Y75" s="106"/>
-      <c r="Z75" s="106"/>
-      <c r="AA75" s="106"/>
-      <c r="AB75" s="106"/>
-      <c r="AC75" s="106"/>
-      <c r="AD75" s="106"/>
-      <c r="AE75" s="106"/>
-      <c r="AF75" s="106"/>
-      <c r="AG75" s="106"/>
+      <c r="R75" s="110"/>
+      <c r="S75" s="110"/>
+      <c r="T75" s="110"/>
+      <c r="U75" s="110"/>
+      <c r="V75" s="110"/>
+      <c r="W75" s="110"/>
+      <c r="X75" s="110"/>
+      <c r="Y75" s="110"/>
+      <c r="Z75" s="110"/>
+      <c r="AA75" s="110"/>
+      <c r="AB75" s="110"/>
+      <c r="AC75" s="110"/>
+      <c r="AD75" s="110"/>
+      <c r="AE75" s="110"/>
+      <c r="AF75" s="110"/>
+      <c r="AG75" s="110"/>
       <c r="AH75" s="28" t="s">
         <v>84</v>
       </c>
@@ -49332,7 +49332,7 @@
         <v>15.29</v>
       </c>
     </row>
-    <row r="143" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="34" t="s">
         <v>595</v>
       </c>
@@ -49438,13 +49438,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="H4:AE4"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:AE2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:AE3"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H5:AE5"/>
     <mergeCell ref="A6:AE6"/>
@@ -49454,6 +49447,13 @@
     <mergeCell ref="A7:AE7"/>
     <mergeCell ref="A8:AE8"/>
     <mergeCell ref="A9:AE9"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:AE4"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:AE2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -49465,23 +49465,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G372"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="43.7265625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="3.5546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="15"/>
     <col min="7" max="7" width="21" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="15"/>
+    <col min="8" max="16384" width="9.21875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>97</v>
       </c>
@@ -49502,7 +49502,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -49525,7 +49525,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -49548,7 +49548,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -49571,7 +49571,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -49594,7 +49594,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -49617,7 +49617,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -49640,7 +49640,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -49663,7 +49663,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -49686,7 +49686,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -49709,7 +49709,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -49727,7 +49727,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -49745,7 +49745,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -49763,7 +49763,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -49781,7 +49781,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -49799,7 +49799,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -49817,7 +49817,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -49835,7 +49835,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -49853,7 +49853,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -49871,7 +49871,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -49889,7 +49889,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -49907,7 +49907,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -49925,7 +49925,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -49943,7 +49943,7 @@
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -49961,7 +49961,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -49979,7 +49979,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -49997,7 +49997,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -50015,7 +50015,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -50033,7 +50033,7 @@
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -50051,7 +50051,7 @@
       </c>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -50069,7 +50069,7 @@
       </c>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -50087,7 +50087,7 @@
       </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -50105,7 +50105,7 @@
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -50123,7 +50123,7 @@
       </c>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -50141,7 +50141,7 @@
       </c>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -50159,7 +50159,7 @@
       </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -50177,7 +50177,7 @@
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -50195,7 +50195,7 @@
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -50213,7 +50213,7 @@
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -50231,7 +50231,7 @@
       </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -50249,7 +50249,7 @@
       </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -50267,7 +50267,7 @@
       </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -50285,7 +50285,7 @@
       </c>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -50303,7 +50303,7 @@
       </c>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -50321,7 +50321,7 @@
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -50339,7 +50339,7 @@
       </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -50357,7 +50357,7 @@
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -50375,7 +50375,7 @@
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -50393,7 +50393,7 @@
       </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -50411,7 +50411,7 @@
       </c>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -50429,7 +50429,7 @@
       </c>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -50447,7 +50447,7 @@
       </c>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -50465,7 +50465,7 @@
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -50483,7 +50483,7 @@
       </c>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -50501,7 +50501,7 @@
       </c>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -50519,7 +50519,7 @@
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -50537,7 +50537,7 @@
       </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -50555,7 +50555,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -50573,7 +50573,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -50591,7 +50591,7 @@
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -50609,7 +50609,7 @@
       </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -50627,7 +50627,7 @@
       </c>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -50645,7 +50645,7 @@
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -50663,7 +50663,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -50681,7 +50681,7 @@
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -50699,7 +50699,7 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -50717,7 +50717,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -50735,7 +50735,7 @@
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -50753,7 +50753,7 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -50771,7 +50771,7 @@
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -50789,7 +50789,7 @@
       </c>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -50807,7 +50807,7 @@
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -50825,7 +50825,7 @@
       </c>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -50843,7 +50843,7 @@
       </c>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -50861,7 +50861,7 @@
       </c>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -50879,7 +50879,7 @@
       </c>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -50897,7 +50897,7 @@
       </c>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -50915,7 +50915,7 @@
       </c>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -50933,7 +50933,7 @@
       </c>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -50951,7 +50951,7 @@
       </c>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -50969,7 +50969,7 @@
       </c>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -50987,7 +50987,7 @@
       </c>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -51005,7 +51005,7 @@
       </c>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -51023,7 +51023,7 @@
       </c>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -51041,7 +51041,7 @@
       </c>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -51059,7 +51059,7 @@
       </c>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -51077,7 +51077,7 @@
       </c>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -51095,7 +51095,7 @@
       </c>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -51113,7 +51113,7 @@
       </c>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -51131,7 +51131,7 @@
       </c>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -51149,7 +51149,7 @@
       </c>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -51167,7 +51167,7 @@
       </c>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -51185,7 +51185,7 @@
       </c>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -51203,7 +51203,7 @@
       </c>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -51221,7 +51221,7 @@
       </c>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -51239,7 +51239,7 @@
       </c>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -51257,7 +51257,7 @@
       </c>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -51275,7 +51275,7 @@
       </c>
       <c r="F97" s="6"/>
     </row>
-    <row r="98" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -51293,7 +51293,7 @@
       </c>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -51311,7 +51311,7 @@
       </c>
       <c r="F99" s="6"/>
     </row>
-    <row r="100" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -51329,7 +51329,7 @@
       </c>
       <c r="F100" s="6"/>
     </row>
-    <row r="101" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -51347,7 +51347,7 @@
       </c>
       <c r="F101" s="6"/>
     </row>
-    <row r="102" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -51365,7 +51365,7 @@
       </c>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -51383,7 +51383,7 @@
       </c>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -51401,7 +51401,7 @@
       </c>
       <c r="F104" s="6"/>
     </row>
-    <row r="105" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -51419,7 +51419,7 @@
       </c>
       <c r="F105" s="6"/>
     </row>
-    <row r="106" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -51437,7 +51437,7 @@
       </c>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -51455,7 +51455,7 @@
       </c>
       <c r="F107" s="6"/>
     </row>
-    <row r="108" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -51473,7 +51473,7 @@
       </c>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -51491,7 +51491,7 @@
       </c>
       <c r="F109" s="6"/>
     </row>
-    <row r="110" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -51509,7 +51509,7 @@
       </c>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -51527,7 +51527,7 @@
       </c>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -51545,7 +51545,7 @@
       </c>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -51563,7 +51563,7 @@
       </c>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -51581,7 +51581,7 @@
       </c>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -51599,7 +51599,7 @@
       </c>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -51617,7 +51617,7 @@
       </c>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>117</v>
       </c>
@@ -51653,7 +51653,7 @@
       </c>
       <c r="F118" s="6"/>
     </row>
-    <row r="119" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>118</v>
       </c>
@@ -51671,7 +51671,7 @@
       </c>
       <c r="F119" s="6"/>
     </row>
-    <row r="120" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>119</v>
       </c>
@@ -51689,7 +51689,7 @@
       </c>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -51707,7 +51707,7 @@
       </c>
       <c r="F121" s="6"/>
     </row>
-    <row r="122" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>121</v>
       </c>
@@ -51725,7 +51725,7 @@
       </c>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>122</v>
       </c>
@@ -51743,7 +51743,7 @@
       </c>
       <c r="F123" s="6"/>
     </row>
-    <row r="124" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -51761,7 +51761,7 @@
       </c>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -51779,7 +51779,7 @@
       </c>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -51797,7 +51797,7 @@
       </c>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>126</v>
       </c>
@@ -51815,7 +51815,7 @@
       </c>
       <c r="F127" s="6"/>
     </row>
-    <row r="128" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -51833,7 +51833,7 @@
       </c>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>128</v>
       </c>
@@ -51851,7 +51851,7 @@
       </c>
       <c r="F129" s="6"/>
     </row>
-    <row r="130" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>129</v>
       </c>
@@ -51869,7 +51869,7 @@
       </c>
       <c r="F130" s="6"/>
     </row>
-    <row r="131" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -51887,7 +51887,7 @@
       </c>
       <c r="F131" s="6"/>
     </row>
-    <row r="132" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -51905,7 +51905,7 @@
       </c>
       <c r="F132" s="6"/>
     </row>
-    <row r="133" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>132</v>
       </c>
@@ -51923,7 +51923,7 @@
       </c>
       <c r="F133" s="6"/>
     </row>
-    <row r="134" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -51941,7 +51941,7 @@
       </c>
       <c r="F134" s="6"/>
     </row>
-    <row r="135" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>134</v>
       </c>
@@ -51959,7 +51959,7 @@
       </c>
       <c r="F135" s="6"/>
     </row>
-    <row r="136" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>135</v>
       </c>
@@ -51977,7 +51977,7 @@
       </c>
       <c r="F136" s="6"/>
     </row>
-    <row r="137" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>136</v>
       </c>
@@ -51995,7 +51995,7 @@
       </c>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>137</v>
       </c>
@@ -52013,7 +52013,7 @@
       </c>
       <c r="F138" s="6"/>
     </row>
-    <row r="139" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>138</v>
       </c>
@@ -52031,7 +52031,7 @@
       </c>
       <c r="F139" s="6"/>
     </row>
-    <row r="140" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>139</v>
       </c>
@@ -52049,7 +52049,7 @@
       </c>
       <c r="F140" s="6"/>
     </row>
-    <row r="141" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>140</v>
       </c>
@@ -52067,7 +52067,7 @@
       </c>
       <c r="F141" s="6"/>
     </row>
-    <row r="142" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>141</v>
       </c>
@@ -52085,7 +52085,7 @@
       </c>
       <c r="F142" s="6"/>
     </row>
-    <row r="143" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>142</v>
       </c>
@@ -52103,7 +52103,7 @@
       </c>
       <c r="F143" s="6"/>
     </row>
-    <row r="144" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>143</v>
       </c>
@@ -52121,7 +52121,7 @@
       </c>
       <c r="F144" s="6"/>
     </row>
-    <row r="145" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>144</v>
       </c>
@@ -52139,7 +52139,7 @@
       </c>
       <c r="F145" s="6"/>
     </row>
-    <row r="146" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>145</v>
       </c>
@@ -52157,7 +52157,7 @@
       </c>
       <c r="F146" s="6"/>
     </row>
-    <row r="147" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>146</v>
       </c>
@@ -52175,7 +52175,7 @@
       </c>
       <c r="F147" s="6"/>
     </row>
-    <row r="148" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>147</v>
       </c>
@@ -52193,7 +52193,7 @@
       </c>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>148</v>
       </c>
@@ -52211,7 +52211,7 @@
       </c>
       <c r="F149" s="6"/>
     </row>
-    <row r="150" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>149</v>
       </c>
@@ -52229,7 +52229,7 @@
       </c>
       <c r="F150" s="6"/>
     </row>
-    <row r="151" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>150</v>
       </c>
@@ -52247,7 +52247,7 @@
       </c>
       <c r="F151" s="6"/>
     </row>
-    <row r="152" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>151</v>
       </c>
@@ -52265,7 +52265,7 @@
       </c>
       <c r="F152" s="6"/>
     </row>
-    <row r="153" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>152</v>
       </c>
@@ -52283,7 +52283,7 @@
       </c>
       <c r="F153" s="6"/>
     </row>
-    <row r="154" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>153</v>
       </c>
@@ -52301,7 +52301,7 @@
       </c>
       <c r="F154" s="6"/>
     </row>
-    <row r="155" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>154</v>
       </c>
@@ -52319,7 +52319,7 @@
       </c>
       <c r="F155" s="6"/>
     </row>
-    <row r="156" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>155</v>
       </c>
@@ -52337,7 +52337,7 @@
       </c>
       <c r="F156" s="6"/>
     </row>
-    <row r="157" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>156</v>
       </c>
@@ -52355,7 +52355,7 @@
       </c>
       <c r="F157" s="6"/>
     </row>
-    <row r="158" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>157</v>
       </c>
@@ -52373,7 +52373,7 @@
       </c>
       <c r="F158" s="6"/>
     </row>
-    <row r="159" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>158</v>
       </c>
@@ -52391,7 +52391,7 @@
       </c>
       <c r="F159" s="6"/>
     </row>
-    <row r="160" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -52409,7 +52409,7 @@
       </c>
       <c r="F160" s="6"/>
     </row>
-    <row r="161" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -52427,7 +52427,7 @@
       </c>
       <c r="F161" s="6"/>
     </row>
-    <row r="162" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -52445,7 +52445,7 @@
       </c>
       <c r="F162" s="6"/>
     </row>
-    <row r="163" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>162</v>
       </c>
@@ -52463,7 +52463,7 @@
       </c>
       <c r="F163" s="6"/>
     </row>
-    <row r="164" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -52481,7 +52481,7 @@
       </c>
       <c r="F164" s="6"/>
     </row>
-    <row r="165" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -52499,7 +52499,7 @@
       </c>
       <c r="F165" s="6"/>
     </row>
-    <row r="166" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>165</v>
       </c>
@@ -52517,7 +52517,7 @@
       </c>
       <c r="F166" s="6"/>
     </row>
-    <row r="167" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>166</v>
       </c>
@@ -52535,7 +52535,7 @@
       </c>
       <c r="F167" s="6"/>
     </row>
-    <row r="168" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>167</v>
       </c>
@@ -52553,7 +52553,7 @@
       </c>
       <c r="F168" s="6"/>
     </row>
-    <row r="169" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>168</v>
       </c>
@@ -52571,7 +52571,7 @@
       </c>
       <c r="F169" s="6"/>
     </row>
-    <row r="170" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>169</v>
       </c>
@@ -52589,7 +52589,7 @@
       </c>
       <c r="F170" s="6"/>
     </row>
-    <row r="171" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>170</v>
       </c>
@@ -52607,7 +52607,7 @@
       </c>
       <c r="F171" s="6"/>
     </row>
-    <row r="172" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>171</v>
       </c>
@@ -52625,7 +52625,7 @@
       </c>
       <c r="F172" s="6"/>
     </row>
-    <row r="173" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>172</v>
       </c>
@@ -52643,7 +52643,7 @@
       </c>
       <c r="F173" s="6"/>
     </row>
-    <row r="174" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>173</v>
       </c>
@@ -52661,7 +52661,7 @@
       </c>
       <c r="F174" s="6"/>
     </row>
-    <row r="175" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>174</v>
       </c>
@@ -52679,7 +52679,7 @@
       </c>
       <c r="F175" s="6"/>
     </row>
-    <row r="176" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>175</v>
       </c>
@@ -52697,7 +52697,7 @@
       </c>
       <c r="F176" s="6"/>
     </row>
-    <row r="177" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>176</v>
       </c>
@@ -52715,7 +52715,7 @@
       </c>
       <c r="F177" s="6"/>
     </row>
-    <row r="178" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>177</v>
       </c>
@@ -52733,7 +52733,7 @@
       </c>
       <c r="F178" s="6"/>
     </row>
-    <row r="179" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>178</v>
       </c>
@@ -52751,7 +52751,7 @@
       </c>
       <c r="F179" s="6"/>
     </row>
-    <row r="180" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>179</v>
       </c>
@@ -52769,7 +52769,7 @@
       </c>
       <c r="F180" s="6"/>
     </row>
-    <row r="181" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>180</v>
       </c>
@@ -52787,7 +52787,7 @@
       </c>
       <c r="F181" s="6"/>
     </row>
-    <row r="182" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>181</v>
       </c>
@@ -52805,7 +52805,7 @@
       </c>
       <c r="F182" s="6"/>
     </row>
-    <row r="183" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>182</v>
       </c>
@@ -52823,7 +52823,7 @@
       </c>
       <c r="F183" s="6"/>
     </row>
-    <row r="184" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>183</v>
       </c>
@@ -52841,7 +52841,7 @@
       </c>
       <c r="F184" s="6"/>
     </row>
-    <row r="185" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>184</v>
       </c>
@@ -52859,7 +52859,7 @@
       </c>
       <c r="F185" s="6"/>
     </row>
-    <row r="186" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>185</v>
       </c>
@@ -52877,7 +52877,7 @@
       </c>
       <c r="F186" s="6"/>
     </row>
-    <row r="187" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>186</v>
       </c>
@@ -52895,7 +52895,7 @@
       </c>
       <c r="F187" s="6"/>
     </row>
-    <row r="188" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>187</v>
       </c>
@@ -52913,7 +52913,7 @@
       </c>
       <c r="F188" s="6"/>
     </row>
-    <row r="189" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>188</v>
       </c>
@@ -52931,7 +52931,7 @@
       </c>
       <c r="F189" s="6"/>
     </row>
-    <row r="190" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>189</v>
       </c>
@@ -52949,7 +52949,7 @@
       </c>
       <c r="F190" s="6"/>
     </row>
-    <row r="191" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>190</v>
       </c>
@@ -52967,7 +52967,7 @@
       </c>
       <c r="F191" s="6"/>
     </row>
-    <row r="192" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>191</v>
       </c>
@@ -52985,7 +52985,7 @@
       </c>
       <c r="F192" s="6"/>
     </row>
-    <row r="193" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>192</v>
       </c>
@@ -53003,7 +53003,7 @@
       </c>
       <c r="F193" s="6"/>
     </row>
-    <row r="194" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>193</v>
       </c>
@@ -53021,7 +53021,7 @@
       </c>
       <c r="F194" s="6"/>
     </row>
-    <row r="195" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>194</v>
       </c>
@@ -53039,7 +53039,7 @@
       </c>
       <c r="F195" s="6"/>
     </row>
-    <row r="196" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>195</v>
       </c>
@@ -53057,7 +53057,7 @@
       </c>
       <c r="F196" s="6"/>
     </row>
-    <row r="197" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>196</v>
       </c>
@@ -53075,7 +53075,7 @@
       </c>
       <c r="F197" s="6"/>
     </row>
-    <row r="198" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>197</v>
       </c>
@@ -53093,7 +53093,7 @@
       </c>
       <c r="F198" s="6"/>
     </row>
-    <row r="199" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>198</v>
       </c>
@@ -53111,7 +53111,7 @@
       </c>
       <c r="F199" s="6"/>
     </row>
-    <row r="200" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>199</v>
       </c>
@@ -53129,7 +53129,7 @@
       </c>
       <c r="F200" s="6"/>
     </row>
-    <row r="201" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>200</v>
       </c>
@@ -53147,7 +53147,7 @@
       </c>
       <c r="F201" s="6"/>
     </row>
-    <row r="202" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>201</v>
       </c>
@@ -53165,7 +53165,7 @@
       </c>
       <c r="F202" s="6"/>
     </row>
-    <row r="203" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>202</v>
       </c>
@@ -53183,7 +53183,7 @@
       </c>
       <c r="F203" s="6"/>
     </row>
-    <row r="204" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>203</v>
       </c>
@@ -53201,7 +53201,7 @@
       </c>
       <c r="F204" s="6"/>
     </row>
-    <row r="205" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>204</v>
       </c>
@@ -53219,7 +53219,7 @@
       </c>
       <c r="F205" s="6"/>
     </row>
-    <row r="206" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>205</v>
       </c>
@@ -53237,7 +53237,7 @@
       </c>
       <c r="F206" s="6"/>
     </row>
-    <row r="207" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>206</v>
       </c>
@@ -53255,7 +53255,7 @@
       </c>
       <c r="F207" s="6"/>
     </row>
-    <row r="208" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
         <v>207</v>
       </c>
@@ -53273,7 +53273,7 @@
       </c>
       <c r="F208" s="6"/>
     </row>
-    <row r="209" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>208</v>
       </c>
@@ -53291,7 +53291,7 @@
       </c>
       <c r="F209" s="6"/>
     </row>
-    <row r="210" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>209</v>
       </c>
@@ -53309,7 +53309,7 @@
       </c>
       <c r="F210" s="6"/>
     </row>
-    <row r="211" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>210</v>
       </c>
@@ -53327,7 +53327,7 @@
       </c>
       <c r="F211" s="6"/>
     </row>
-    <row r="212" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>211</v>
       </c>
@@ -53345,7 +53345,7 @@
       </c>
       <c r="F212" s="6"/>
     </row>
-    <row r="213" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>212</v>
       </c>
@@ -53363,7 +53363,7 @@
       </c>
       <c r="F213" s="6"/>
     </row>
-    <row r="214" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>213</v>
       </c>
@@ -53381,7 +53381,7 @@
       </c>
       <c r="F214" s="6"/>
     </row>
-    <row r="215" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>214</v>
       </c>
@@ -53399,7 +53399,7 @@
       </c>
       <c r="F215" s="6"/>
     </row>
-    <row r="216" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>215</v>
       </c>
@@ -53417,7 +53417,7 @@
       </c>
       <c r="F216" s="6"/>
     </row>
-    <row r="217" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>216</v>
       </c>
@@ -53435,7 +53435,7 @@
       </c>
       <c r="F217" s="6"/>
     </row>
-    <row r="218" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>217</v>
       </c>
@@ -53453,7 +53453,7 @@
       </c>
       <c r="F218" s="6"/>
     </row>
-    <row r="219" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>218</v>
       </c>
@@ -53471,7 +53471,7 @@
       </c>
       <c r="F219" s="6"/>
     </row>
-    <row r="220" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
         <v>219</v>
       </c>
@@ -53489,7 +53489,7 @@
       </c>
       <c r="F220" s="6"/>
     </row>
-    <row r="221" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>220</v>
       </c>
@@ -53507,7 +53507,7 @@
       </c>
       <c r="F221" s="6"/>
     </row>
-    <row r="222" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>221</v>
       </c>
@@ -53525,7 +53525,7 @@
       </c>
       <c r="F222" s="6"/>
     </row>
-    <row r="223" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>222</v>
       </c>
@@ -53543,7 +53543,7 @@
       </c>
       <c r="F223" s="6"/>
     </row>
-    <row r="224" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>223</v>
       </c>
@@ -53561,7 +53561,7 @@
       </c>
       <c r="F224" s="6"/>
     </row>
-    <row r="225" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>224</v>
       </c>
@@ -53579,7 +53579,7 @@
       </c>
       <c r="F225" s="6"/>
     </row>
-    <row r="226" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>225</v>
       </c>
@@ -53597,7 +53597,7 @@
       </c>
       <c r="F226" s="6"/>
     </row>
-    <row r="227" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>226</v>
       </c>
@@ -53615,7 +53615,7 @@
       </c>
       <c r="F227" s="6"/>
     </row>
-    <row r="228" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>227</v>
       </c>
@@ -53633,7 +53633,7 @@
       </c>
       <c r="F228" s="6"/>
     </row>
-    <row r="229" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
         <v>228</v>
       </c>
@@ -53651,7 +53651,7 @@
       </c>
       <c r="F229" s="6"/>
     </row>
-    <row r="230" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>229</v>
       </c>
@@ -53669,7 +53669,7 @@
       </c>
       <c r="F230" s="6"/>
     </row>
-    <row r="231" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>230</v>
       </c>
@@ -53687,7 +53687,7 @@
       </c>
       <c r="F231" s="6"/>
     </row>
-    <row r="232" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
         <v>231</v>
       </c>
@@ -53705,7 +53705,7 @@
       </c>
       <c r="F232" s="6"/>
     </row>
-    <row r="233" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>232</v>
       </c>
@@ -53723,7 +53723,7 @@
       </c>
       <c r="F233" s="6"/>
     </row>
-    <row r="234" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>233</v>
       </c>
@@ -53741,7 +53741,7 @@
       </c>
       <c r="F234" s="6"/>
     </row>
-    <row r="235" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
         <v>234</v>
       </c>
@@ -53759,7 +53759,7 @@
       </c>
       <c r="F235" s="6"/>
     </row>
-    <row r="236" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
         <v>235</v>
       </c>
@@ -53777,7 +53777,7 @@
       </c>
       <c r="F236" s="6"/>
     </row>
-    <row r="237" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>236</v>
       </c>
@@ -53795,7 +53795,7 @@
       </c>
       <c r="F237" s="6"/>
     </row>
-    <row r="238" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
         <v>237</v>
       </c>
@@ -53813,7 +53813,7 @@
       </c>
       <c r="F238" s="6"/>
     </row>
-    <row r="239" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>238</v>
       </c>
@@ -53831,7 +53831,7 @@
       </c>
       <c r="F239" s="6"/>
     </row>
-    <row r="240" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>239</v>
       </c>
@@ -53849,7 +53849,7 @@
       </c>
       <c r="F240" s="6"/>
     </row>
-    <row r="241" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>240</v>
       </c>
@@ -53867,7 +53867,7 @@
       </c>
       <c r="F241" s="6"/>
     </row>
-    <row r="242" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>241</v>
       </c>
@@ -53885,7 +53885,7 @@
       </c>
       <c r="F242" s="6"/>
     </row>
-    <row r="243" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>242</v>
       </c>
@@ -53903,7 +53903,7 @@
       </c>
       <c r="F243" s="6"/>
     </row>
-    <row r="244" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>243</v>
       </c>
@@ -53921,7 +53921,7 @@
       </c>
       <c r="F244" s="6"/>
     </row>
-    <row r="245" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>244</v>
       </c>
@@ -53939,7 +53939,7 @@
       </c>
       <c r="F245" s="6"/>
     </row>
-    <row r="246" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>245</v>
       </c>
@@ -53957,7 +53957,7 @@
       </c>
       <c r="F246" s="6"/>
     </row>
-    <row r="247" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
         <v>246</v>
       </c>
@@ -53975,7 +53975,7 @@
       </c>
       <c r="F247" s="6"/>
     </row>
-    <row r="248" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
         <v>247</v>
       </c>
@@ -53993,7 +53993,7 @@
       </c>
       <c r="F248" s="6"/>
     </row>
-    <row r="249" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
         <v>248</v>
       </c>
@@ -54011,7 +54011,7 @@
       </c>
       <c r="F249" s="6"/>
     </row>
-    <row r="250" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
         <v>249</v>
       </c>
@@ -54029,7 +54029,7 @@
       </c>
       <c r="F250" s="6"/>
     </row>
-    <row r="251" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
         <v>250</v>
       </c>
@@ -54047,7 +54047,7 @@
       </c>
       <c r="F251" s="6"/>
     </row>
-    <row r="252" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
         <v>251</v>
       </c>
@@ -54065,7 +54065,7 @@
       </c>
       <c r="F252" s="6"/>
     </row>
-    <row r="253" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>252</v>
       </c>
@@ -54083,7 +54083,7 @@
       </c>
       <c r="F253" s="6"/>
     </row>
-    <row r="254" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>253</v>
       </c>
@@ -54101,7 +54101,7 @@
       </c>
       <c r="F254" s="6"/>
     </row>
-    <row r="255" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>254</v>
       </c>
@@ -54119,7 +54119,7 @@
       </c>
       <c r="F255" s="6"/>
     </row>
-    <row r="256" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
         <v>255</v>
       </c>
@@ -54137,7 +54137,7 @@
       </c>
       <c r="F256" s="6"/>
     </row>
-    <row r="257" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>256</v>
       </c>
@@ -54155,7 +54155,7 @@
       </c>
       <c r="F257" s="6"/>
     </row>
-    <row r="258" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
         <v>257</v>
       </c>
@@ -54173,7 +54173,7 @@
       </c>
       <c r="F258" s="6"/>
     </row>
-    <row r="259" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
         <v>258</v>
       </c>
@@ -54191,7 +54191,7 @@
       </c>
       <c r="F259" s="6"/>
     </row>
-    <row r="260" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
         <v>259</v>
       </c>
@@ -54209,7 +54209,7 @@
       </c>
       <c r="F260" s="6"/>
     </row>
-    <row r="261" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
         <v>260</v>
       </c>
@@ -54227,7 +54227,7 @@
       </c>
       <c r="F261" s="6"/>
     </row>
-    <row r="262" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
         <v>261</v>
       </c>
@@ -54245,7 +54245,7 @@
       </c>
       <c r="F262" s="6"/>
     </row>
-    <row r="263" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>262</v>
       </c>
@@ -54263,7 +54263,7 @@
       </c>
       <c r="F263" s="6"/>
     </row>
-    <row r="264" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>263</v>
       </c>
@@ -54281,7 +54281,7 @@
       </c>
       <c r="F264" s="6"/>
     </row>
-    <row r="265" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>264</v>
       </c>
@@ -54299,7 +54299,7 @@
       </c>
       <c r="F265" s="6"/>
     </row>
-    <row r="266" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>265</v>
       </c>
@@ -54317,7 +54317,7 @@
       </c>
       <c r="F266" s="6"/>
     </row>
-    <row r="267" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
         <v>266</v>
       </c>
@@ -54335,7 +54335,7 @@
       </c>
       <c r="F267" s="6"/>
     </row>
-    <row r="268" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
         <v>267</v>
       </c>
@@ -54353,7 +54353,7 @@
       </c>
       <c r="F268" s="6"/>
     </row>
-    <row r="269" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
         <v>268</v>
       </c>
@@ -54371,7 +54371,7 @@
       </c>
       <c r="F269" s="6"/>
     </row>
-    <row r="270" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>269</v>
       </c>
@@ -54389,7 +54389,7 @@
       </c>
       <c r="F270" s="6"/>
     </row>
-    <row r="271" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
         <v>270</v>
       </c>
@@ -54407,7 +54407,7 @@
       </c>
       <c r="F271" s="6"/>
     </row>
-    <row r="272" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
         <v>271</v>
       </c>
@@ -54425,7 +54425,7 @@
       </c>
       <c r="F272" s="6"/>
     </row>
-    <row r="273" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>272</v>
       </c>
@@ -54443,7 +54443,7 @@
       </c>
       <c r="F273" s="6"/>
     </row>
-    <row r="274" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>273</v>
       </c>
@@ -54461,7 +54461,7 @@
       </c>
       <c r="F274" s="6"/>
     </row>
-    <row r="275" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>274</v>
       </c>
@@ -54479,7 +54479,7 @@
       </c>
       <c r="F275" s="6"/>
     </row>
-    <row r="276" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
         <v>275</v>
       </c>
@@ -54497,7 +54497,7 @@
       </c>
       <c r="F276" s="6"/>
     </row>
-    <row r="277" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>276</v>
       </c>
@@ -54515,7 +54515,7 @@
       </c>
       <c r="F277" s="6"/>
     </row>
-    <row r="278" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
         <v>277</v>
       </c>
@@ -54533,7 +54533,7 @@
       </c>
       <c r="F278" s="6"/>
     </row>
-    <row r="279" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
         <v>278</v>
       </c>
@@ -54551,7 +54551,7 @@
       </c>
       <c r="F279" s="6"/>
     </row>
-    <row r="280" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
         <v>279</v>
       </c>
@@ -54569,7 +54569,7 @@
       </c>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>280</v>
       </c>
@@ -54587,7 +54587,7 @@
       </c>
       <c r="F281" s="6"/>
     </row>
-    <row r="282" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>281</v>
       </c>
@@ -54605,7 +54605,7 @@
       </c>
       <c r="F282" s="6"/>
     </row>
-    <row r="283" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>282</v>
       </c>
@@ -54623,7 +54623,7 @@
       </c>
       <c r="F283" s="6"/>
     </row>
-    <row r="284" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>283</v>
       </c>
@@ -54641,7 +54641,7 @@
       </c>
       <c r="F284" s="6"/>
     </row>
-    <row r="285" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
         <v>284</v>
       </c>
@@ -54659,7 +54659,7 @@
       </c>
       <c r="F285" s="6"/>
     </row>
-    <row r="286" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
         <v>285</v>
       </c>
@@ -54677,7 +54677,7 @@
       </c>
       <c r="F286" s="6"/>
     </row>
-    <row r="287" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>286</v>
       </c>
@@ -54695,7 +54695,7 @@
       </c>
       <c r="F287" s="6"/>
     </row>
-    <row r="288" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
         <v>287</v>
       </c>
@@ -54713,7 +54713,7 @@
       </c>
       <c r="F288" s="6"/>
     </row>
-    <row r="289" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
         <v>288</v>
       </c>
@@ -54731,7 +54731,7 @@
       </c>
       <c r="F289" s="6"/>
     </row>
-    <row r="290" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>289</v>
       </c>
@@ -54749,7 +54749,7 @@
       </c>
       <c r="F290" s="6"/>
     </row>
-    <row r="291" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="8">
         <v>290</v>
       </c>
@@ -54767,7 +54767,7 @@
       </c>
       <c r="F291" s="6"/>
     </row>
-    <row r="292" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
         <v>291</v>
       </c>
@@ -54785,7 +54785,7 @@
       </c>
       <c r="F292" s="6"/>
     </row>
-    <row r="293" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
         <v>292</v>
       </c>
@@ -54803,7 +54803,7 @@
       </c>
       <c r="F293" s="6"/>
     </row>
-    <row r="294" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
         <v>293</v>
       </c>
@@ -54821,7 +54821,7 @@
       </c>
       <c r="F294" s="6"/>
     </row>
-    <row r="295" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>294</v>
       </c>
@@ -54839,7 +54839,7 @@
       </c>
       <c r="F295" s="6"/>
     </row>
-    <row r="296" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>295</v>
       </c>
@@ -54857,7 +54857,7 @@
       </c>
       <c r="F296" s="6"/>
     </row>
-    <row r="297" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
         <v>296</v>
       </c>
@@ -54875,7 +54875,7 @@
       </c>
       <c r="F297" s="6"/>
     </row>
-    <row r="298" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>297</v>
       </c>
@@ -54893,7 +54893,7 @@
       </c>
       <c r="F298" s="6"/>
     </row>
-    <row r="299" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
         <v>298</v>
       </c>
@@ -54911,7 +54911,7 @@
       </c>
       <c r="F299" s="6"/>
     </row>
-    <row r="300" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
         <v>299</v>
       </c>
@@ -54929,7 +54929,7 @@
       </c>
       <c r="F300" s="6"/>
     </row>
-    <row r="301" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
         <v>300</v>
       </c>
@@ -54947,7 +54947,7 @@
       </c>
       <c r="F301" s="6"/>
     </row>
-    <row r="302" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
         <v>301</v>
       </c>
@@ -54965,7 +54965,7 @@
       </c>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>302</v>
       </c>
@@ -54983,7 +54983,7 @@
       </c>
       <c r="F303" s="6"/>
     </row>
-    <row r="304" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>303</v>
       </c>
@@ -55001,7 +55001,7 @@
       </c>
       <c r="F304" s="6"/>
     </row>
-    <row r="305" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>304</v>
       </c>
@@ -55019,7 +55019,7 @@
       </c>
       <c r="F305" s="6"/>
     </row>
-    <row r="306" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
         <v>305</v>
       </c>
@@ -55037,7 +55037,7 @@
       </c>
       <c r="F306" s="6"/>
     </row>
-    <row r="307" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
         <v>306</v>
       </c>
@@ -55055,7 +55055,7 @@
       </c>
       <c r="F307" s="6"/>
     </row>
-    <row r="308" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
         <v>307</v>
       </c>
@@ -55073,7 +55073,7 @@
       </c>
       <c r="F308" s="6"/>
     </row>
-    <row r="309" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
         <v>308</v>
       </c>
@@ -55091,7 +55091,7 @@
       </c>
       <c r="F309" s="6"/>
     </row>
-    <row r="310" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
         <v>309</v>
       </c>
@@ -55109,7 +55109,7 @@
       </c>
       <c r="F310" s="6"/>
     </row>
-    <row r="311" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
         <v>310</v>
       </c>
@@ -55127,7 +55127,7 @@
       </c>
       <c r="F311" s="6"/>
     </row>
-    <row r="312" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
         <v>311</v>
       </c>
@@ -55145,7 +55145,7 @@
       </c>
       <c r="F312" s="6"/>
     </row>
-    <row r="313" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
         <v>312</v>
       </c>
@@ -55163,7 +55163,7 @@
       </c>
       <c r="F313" s="6"/>
     </row>
-    <row r="314" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
         <v>313</v>
       </c>
@@ -55181,7 +55181,7 @@
       </c>
       <c r="F314" s="6"/>
     </row>
-    <row r="315" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
         <v>314</v>
       </c>
@@ -55199,7 +55199,7 @@
       </c>
       <c r="F315" s="6"/>
     </row>
-    <row r="316" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
         <v>315</v>
       </c>
@@ -55217,7 +55217,7 @@
       </c>
       <c r="F316" s="6"/>
     </row>
-    <row r="317" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
         <v>316</v>
       </c>
@@ -55235,7 +55235,7 @@
       </c>
       <c r="F317" s="6"/>
     </row>
-    <row r="318" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
         <v>317</v>
       </c>
@@ -55253,7 +55253,7 @@
       </c>
       <c r="F318" s="6"/>
     </row>
-    <row r="319" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
         <v>318</v>
       </c>
@@ -55271,7 +55271,7 @@
       </c>
       <c r="F319" s="6"/>
     </row>
-    <row r="320" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
         <v>319</v>
       </c>
@@ -55289,7 +55289,7 @@
       </c>
       <c r="F320" s="6"/>
     </row>
-    <row r="321" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
         <v>320</v>
       </c>
@@ -55307,7 +55307,7 @@
       </c>
       <c r="F321" s="6"/>
     </row>
-    <row r="322" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
         <v>321</v>
       </c>
@@ -55325,7 +55325,7 @@
       </c>
       <c r="F322" s="6"/>
     </row>
-    <row r="323" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
         <v>322</v>
       </c>
@@ -55343,7 +55343,7 @@
       </c>
       <c r="F323" s="6"/>
     </row>
-    <row r="324" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
         <v>323</v>
       </c>
@@ -55361,7 +55361,7 @@
       </c>
       <c r="F324" s="6"/>
     </row>
-    <row r="325" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
         <v>324</v>
       </c>
@@ -55379,7 +55379,7 @@
       </c>
       <c r="F325" s="6"/>
     </row>
-    <row r="326" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
         <v>325</v>
       </c>
@@ -55397,7 +55397,7 @@
       </c>
       <c r="F326" s="6"/>
     </row>
-    <row r="327" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
         <v>326</v>
       </c>
@@ -55415,7 +55415,7 @@
       </c>
       <c r="F327" s="6"/>
     </row>
-    <row r="328" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>327</v>
       </c>
@@ -55433,7 +55433,7 @@
       </c>
       <c r="F328" s="6"/>
     </row>
-    <row r="329" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
         <v>328</v>
       </c>
@@ -55451,7 +55451,7 @@
       </c>
       <c r="F329" s="6"/>
     </row>
-    <row r="330" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
         <v>329</v>
       </c>
@@ -55469,7 +55469,7 @@
       </c>
       <c r="F330" s="6"/>
     </row>
-    <row r="331" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
         <v>330</v>
       </c>
@@ -55487,7 +55487,7 @@
       </c>
       <c r="F331" s="6"/>
     </row>
-    <row r="332" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
         <v>331</v>
       </c>
@@ -55505,7 +55505,7 @@
       </c>
       <c r="F332" s="6"/>
     </row>
-    <row r="333" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
         <v>332</v>
       </c>
@@ -55523,7 +55523,7 @@
       </c>
       <c r="F333" s="6"/>
     </row>
-    <row r="334" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
         <v>333</v>
       </c>
@@ -55541,7 +55541,7 @@
       </c>
       <c r="F334" s="6"/>
     </row>
-    <row r="335" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
         <v>334</v>
       </c>
@@ -55559,7 +55559,7 @@
       </c>
       <c r="F335" s="6"/>
     </row>
-    <row r="336" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
         <v>335</v>
       </c>
@@ -55577,7 +55577,7 @@
       </c>
       <c r="F336" s="6"/>
     </row>
-    <row r="337" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
         <v>336</v>
       </c>
@@ -55595,7 +55595,7 @@
       </c>
       <c r="F337" s="6"/>
     </row>
-    <row r="338" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
         <v>337</v>
       </c>
@@ -55613,7 +55613,7 @@
       </c>
       <c r="F338" s="6"/>
     </row>
-    <row r="339" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>338</v>
       </c>
@@ -55631,7 +55631,7 @@
       </c>
       <c r="F339" s="6"/>
     </row>
-    <row r="340" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
         <v>339</v>
       </c>
@@ -55649,7 +55649,7 @@
       </c>
       <c r="F340" s="6"/>
     </row>
-    <row r="341" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
         <v>340</v>
       </c>
@@ -55667,7 +55667,7 @@
       </c>
       <c r="F341" s="6"/>
     </row>
-    <row r="342" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
         <v>341</v>
       </c>
@@ -55685,7 +55685,7 @@
       </c>
       <c r="F342" s="6"/>
     </row>
-    <row r="343" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
         <v>342</v>
       </c>
@@ -55703,7 +55703,7 @@
       </c>
       <c r="F343" s="6"/>
     </row>
-    <row r="344" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
         <v>343</v>
       </c>
@@ -55721,7 +55721,7 @@
       </c>
       <c r="F344" s="6"/>
     </row>
-    <row r="345" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
         <v>344</v>
       </c>
@@ -55739,7 +55739,7 @@
       </c>
       <c r="F345" s="6"/>
     </row>
-    <row r="346" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
         <v>345</v>
       </c>
@@ -55757,7 +55757,7 @@
       </c>
       <c r="F346" s="6"/>
     </row>
-    <row r="347" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
         <v>346</v>
       </c>
@@ -55775,7 +55775,7 @@
       </c>
       <c r="F347" s="6"/>
     </row>
-    <row r="348" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
         <v>347</v>
       </c>
@@ -55793,7 +55793,7 @@
       </c>
       <c r="F348" s="6"/>
     </row>
-    <row r="349" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
         <v>348</v>
       </c>
@@ -55811,7 +55811,7 @@
       </c>
       <c r="F349" s="6"/>
     </row>
-    <row r="350" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
         <v>349</v>
       </c>
@@ -55829,7 +55829,7 @@
       </c>
       <c r="F350" s="6"/>
     </row>
-    <row r="351" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
         <v>350</v>
       </c>
@@ -55847,7 +55847,7 @@
       </c>
       <c r="F351" s="6"/>
     </row>
-    <row r="352" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
         <v>351</v>
       </c>
@@ -55865,7 +55865,7 @@
       </c>
       <c r="F352" s="6"/>
     </row>
-    <row r="353" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
         <v>352</v>
       </c>
@@ -55883,7 +55883,7 @@
       </c>
       <c r="F353" s="6"/>
     </row>
-    <row r="354" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="8">
         <v>353</v>
       </c>
@@ -55901,7 +55901,7 @@
       </c>
       <c r="F354" s="6"/>
     </row>
-    <row r="355" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="8">
         <v>354</v>
       </c>
@@ -55919,7 +55919,7 @@
       </c>
       <c r="F355" s="6"/>
     </row>
-    <row r="356" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="8">
         <v>355</v>
       </c>
@@ -55937,7 +55937,7 @@
       </c>
       <c r="F356" s="6"/>
     </row>
-    <row r="357" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="8">
         <v>356</v>
       </c>
@@ -55955,7 +55955,7 @@
       </c>
       <c r="F357" s="6"/>
     </row>
-    <row r="358" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="8">
         <v>357</v>
       </c>
@@ -55973,7 +55973,7 @@
       </c>
       <c r="F358" s="6"/>
     </row>
-    <row r="359" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="8">
         <v>358</v>
       </c>
@@ -55991,7 +55991,7 @@
       </c>
       <c r="F359" s="6"/>
     </row>
-    <row r="360" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="8">
         <v>359</v>
       </c>
@@ -56009,7 +56009,7 @@
       </c>
       <c r="F360" s="6"/>
     </row>
-    <row r="361" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="8">
         <v>360</v>
       </c>
@@ -56027,7 +56027,7 @@
       </c>
       <c r="F361" s="6"/>
     </row>
-    <row r="362" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="8">
         <v>361</v>
       </c>
@@ -56045,7 +56045,7 @@
       </c>
       <c r="F362" s="6"/>
     </row>
-    <row r="363" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="8">
         <v>362</v>
       </c>
@@ -56063,7 +56063,7 @@
       </c>
       <c r="F363" s="6"/>
     </row>
-    <row r="364" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="8">
         <v>363</v>
       </c>
@@ -56081,7 +56081,7 @@
       </c>
       <c r="F364" s="6"/>
     </row>
-    <row r="365" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="8">
         <v>364</v>
       </c>
@@ -56099,7 +56099,7 @@
       </c>
       <c r="F365" s="6"/>
     </row>
-    <row r="366" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="8">
         <v>365</v>
       </c>
@@ -56117,7 +56117,7 @@
       </c>
       <c r="F366" s="6"/>
     </row>
-    <row r="367" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="8">
         <v>366</v>
       </c>
@@ -56135,7 +56135,7 @@
       </c>
       <c r="F367" s="6"/>
     </row>
-    <row r="368" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="8">
         <v>367</v>
       </c>
@@ -56153,7 +56153,7 @@
       </c>
       <c r="F368" s="6"/>
     </row>
-    <row r="369" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="8">
         <v>368</v>
       </c>
@@ -56171,7 +56171,7 @@
       </c>
       <c r="F369" s="6"/>
     </row>
-    <row r="370" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="8">
         <v>369</v>
       </c>
@@ -56189,7 +56189,7 @@
       </c>
       <c r="F370" s="6"/>
     </row>
-    <row r="371" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="8">
         <v>370</v>
       </c>
@@ -56207,7 +56207,7 @@
       </c>
       <c r="F371" s="6"/>
     </row>
-    <row r="372" spans="1:6" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="8">
         <v>371</v>
       </c>
@@ -56234,6 +56234,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E0C724CCBB7FB24794473D558C897B81" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86d9b256e064198c05d6efa412f72bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="14f82cd5-dea2-47e7-b602-401f39b9480a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d018442e514e3a48a93ea56c159054e" ns2:_="">
     <xsd:import namespace="14f82cd5-dea2-47e7-b602-401f39b9480a"/>
@@ -56379,22 +56394,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498E1E47-19AB-4689-AFBF-A9E7F3AC94EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58338D5B-5713-45A9-B1B3-B02B6F3E9B74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BBC144-9A3F-4D7B-855B-83638B65E4AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56410,21 +56427,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58338D5B-5713-45A9-B1B3-B02B6F3E9B74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498E1E47-19AB-4689-AFBF-A9E7F3AC94EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>